--- a/PEPR Consortium Sites_GIS.xlsx
+++ b/PEPR Consortium Sites_GIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RASV5G/OneDrive - cchmc/PEPR/PEPR_drivetime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_6E3741F74FD563D7B53048CA3730F93FD51E9E9D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6E3741F74FD563D7B53048CA3730F93FD51E9E9D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2C4D5819-8E14-3541-98A0-B164DD811BBA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Riley Hospital for Children, Indiana University</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Medical College of Wisconsin</t>
   </si>
   <si>
-    <t xml:space="preserve">Northwestern </t>
-  </si>
-  <si>
     <t>St. Jude's Children's Hospital</t>
   </si>
   <si>
@@ -182,13 +179,55 @@
   </si>
   <si>
     <t>CHOP</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 225 E. Chicago Ave., Chicago, IL 60611 </t>
+  </si>
+  <si>
+    <t>NWU</t>
+  </si>
+  <si>
+    <t>Ann &amp; Lurie Children’s Northwestern</t>
+  </si>
+  <si>
+    <t>Lurie Children’s Outpatient Center in Northbrook</t>
+  </si>
+  <si>
+    <t>1131 Techny Rd., Northbrook, IL 60062</t>
+  </si>
+  <si>
+    <t>Lurie Children’s Outpatient Center in Lincoln Park</t>
+  </si>
+  <si>
+    <t>467 W Deming Pl, Chicago, IL 60614</t>
+  </si>
+  <si>
+    <t>Lurie Children’s Outpatient Center in Uptown</t>
+  </si>
+  <si>
+    <t>4867 N Broadway, Chicago, IL 60640</t>
+  </si>
+  <si>
+    <t>Dr. Lio's and Dr. Aggarwal's clinics</t>
+  </si>
+  <si>
+    <t>363 W Erie St Suite #350, Chicago, IL 60654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some dyads were recruited from the Eczema Expo 2018:  </t>
+  </si>
+  <si>
+    <t>Westin Chicago River North, at 320 North Dearborn Street, Chicago, IL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +299,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F3864"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="208" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +697,7 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.2">
@@ -660,7 +708,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="61" x14ac:dyDescent="0.2">
@@ -789,7 +837,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31" x14ac:dyDescent="0.2">
@@ -797,37 +845,91 @@
         <v>34</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
